--- a/biology/Histoire de la zoologie et de la botanique/William_Schaus/William_Schaus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Schaus/William_Schaus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Schaus, né le 11 janvier 1858 à New-York et mort le 20 juin 1942, est un entomologiste américain.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé d'art de l'Université du Wisconsin en 1921 puis, influencé par Henry Edwards en Science de l'Université de Pittsburg[1].
-Il a étudié la faune tropicale et constitué une très importante collection de lépidoptères. Il a décrit plus de 500 espèces, principalement d'Amérique tropicale et nommé 329 genres[2].
-Il a offert 5 000 spécimens au National Museum of Natural History[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé d'art de l'Université du Wisconsin en 1921 puis, influencé par Henry Edwards en Science de l'Université de Pittsburg.
+Il a étudié la faune tropicale et constitué une très importante collection de lépidoptères. Il a décrit plus de 500 espèces, principalement d'Amérique tropicale et nommé 329 genres.
+Il a offert 5 000 spécimens au National Museum of Natural History.
 </t>
         </is>
       </c>
